--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="157">
   <si>
     <t>SWE 265P Diary</t>
   </si>
@@ -73,7 +73,7 @@
     <t>Still need more time to learn about setting up environment for new projects</t>
   </si>
   <si>
-    <t>Bad, weather is too cold</t>
+    <t>Bad</t>
   </si>
   <si>
     <t>1/10/2020</t>
@@ -91,7 +91,7 @@
     <t>I just realized that I didn't have an SSH for my github account. So I learnt to add one.</t>
   </si>
   <si>
-    <t>Not bad. I had some really nice food today</t>
+    <t>Not bad</t>
   </si>
   <si>
     <t>1/12/2020</t>
@@ -106,9 +106,6 @@
     <t>I met a lot of problems during process. Many kinds of errors. But I found out that, most of problems occur because of versions. Such as JDK Version, Maven Version, and sometimes I need to make some changes in pom.xml. Anyway, Google is my friend.</t>
   </si>
   <si>
-    <t>Not bad, found a nice Chinese restaurant today.</t>
-  </si>
-  <si>
     <t>1/16/2020</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>I met some errors when deploying the lombok on my own device. I will try to figure it out. Except this little issue, I think Lombok is a good project for our team</t>
   </si>
   <si>
-    <t>Not bad</t>
-  </si>
-  <si>
     <t>Change the team project to a more suitable one</t>
   </si>
   <si>
@@ -169,6 +163,18 @@
     <t>I read the first two articles carefully. It's helpful, but I still think that more practice might be more direct. Anyway, we will learn this through this course.</t>
   </si>
   <si>
+    <t>1/23/2020</t>
+  </si>
+  <si>
+    <t>have lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. I learned about models today. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The context of course really makes sense. Mental models have lots of deficiencies. I prefer draw my mental models on the papaer. But now I get to know how to draw them using plugins. </t>
+  </si>
+  <si>
     <t>1/24/2020</t>
   </si>
   <si>
@@ -199,7 +205,10 @@
     <t>Find two features for the new project</t>
   </si>
   <si>
-    <t>Kaj approved our request. We started to look into the new project using what we learnt in class. It worked out well. We made a platform to record our work. One thing is that our UML plots are really big, we still need to find a proper way to print it and learn it.</t>
+    <t>Finished Goal.Kaj approved our request. We started to look into the new project using what we learnt in class. It worked out well. We made a platform to record our work. One thing is that our UML plots are really big, we still need to find a proper way to print it and learn it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We find that UML is useful for understanding the high-level structure of system. </t>
   </si>
   <si>
     <t>1/28/2020</t>
@@ -208,7 +217,10 @@
     <t>Finish the document for Assignment</t>
   </si>
   <si>
-    <t>We write the document for assignment and Yitian finds a way to print our UML plots. We decide to review our assignment tomorrow and submit it after that.</t>
+    <t>Finished Goal. We write the document for assignment and Yitian finds a way to print our UML plots. We decide to review our assignment tomorrow and submit it after that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Even though sometimes UML is too huge to analyze, it still shows a lot of class relationships. </t>
   </si>
   <si>
     <t>1/30/2020</t>
@@ -217,7 +229,10 @@
     <t>Review and Submit assignment</t>
   </si>
   <si>
-    <t>We reviewed the assignment this morning and submit it.</t>
+    <t>Finished Goal. We reviewed the assignment this morning and submit it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We found some mistakes while reviewing. Reviewing is really important. </t>
   </si>
   <si>
     <t>1/31/2020</t>
@@ -244,7 +259,10 @@
     <t>Team discussion</t>
   </si>
   <si>
-    <t xml:space="preserve">We had the team discussion this afternoon, and divided tasks to different members. Although we had some divergence, we have agreement in the end. We set the MainTable and EntryEditor as our two features. Besides, we want to explain the MainTable in a kind of high level and EntryEditor in details. </t>
+    <t xml:space="preserve">Finished Goal. We had the team discussion this afternoon, and divided tasks to different members. Although we had some divergence, we have agreement in the end. We set the MainTable and EntryEditor as our two features. Besides, we want to explain the MainTable in a kind of high level and EntryEditor in details. </t>
+  </si>
+  <si>
+    <t>Regular team meeting is necessary. Just 30 minutes could make our tasks clear, and divide the assignment to different members.</t>
   </si>
   <si>
     <t>2/5/2020</t>
@@ -253,10 +271,10 @@
     <t>Do assignments</t>
   </si>
   <si>
-    <t>Almost done</t>
-  </si>
-  <si>
-    <t>We discussed a lot of things about the assignment, such as the format, what kind of diagram we need, etc. We add more things to our assignment, it's almost done.</t>
+    <t>Almost done. We discussed a lot of things about the assignment, such as the format, what kind of diagram we need, etc. We add more things to our assignment, it's almost done.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">One important part of assignment is arranging all the things together and explain it clearly. I still need more practice in this part. </t>
   </si>
   <si>
     <t>2/7/2020</t>
@@ -286,9 +304,6 @@
     <t>We received our grades for assignment 1. It was awful. We decided to meet Kaj on Wednesday office hour. Continue reviewing summary.</t>
   </si>
   <si>
-    <t>Bad</t>
-  </si>
-  <si>
     <t>2/13/2020</t>
   </si>
   <si>
@@ -398,6 +413,78 @@
   </si>
   <si>
     <t>I made a PR for second issue, rejected. However, developers gave us some really useful advices about how to improve our code, so, it's not too bad. We'll keep working on it.</t>
+  </si>
+  <si>
+    <t>3/4/2020</t>
+  </si>
+  <si>
+    <t>Work on second issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. We received more and more suggestions and still we're stilll working on it. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Those developers and contributors are really warmhearted. I learnt a lot of things from them. </t>
+  </si>
+  <si>
+    <t>3/5/2020</t>
+  </si>
+  <si>
+    <t>Have lecture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. Learning about test. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is different from test course. It's more about what we can learn from test cases. The practice on class really helps me understand how to do this. </t>
+  </si>
+  <si>
+    <t>3/8/2020</t>
+  </si>
+  <si>
+    <t>Review course</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's almost end of the quarter. I reviewed 3 slides. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewing is needed. I just realized that I forgot a lot of things. </t>
+  </si>
+  <si>
+    <t>3/12/2020</t>
+  </si>
+  <si>
+    <t>Review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have never though that there are so many key expert practices. But I still need some time to follow them and keep doing that.  </t>
+  </si>
+  <si>
+    <t>3/13/2020</t>
+  </si>
+  <si>
+    <t>do assignments</t>
+  </si>
+  <si>
+    <t>still working on it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second issue is almost finished. Learning test cases written by others really helps me learn more about the system. </t>
+  </si>
+  <si>
+    <t>3/16/2020</t>
+  </si>
+  <si>
+    <t>finish assignments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done. We resubmitted homework4 and finished the last assignment. </t>
+  </si>
+  <si>
+    <t>Really happy to take this course. The lectures are nice. Thanks to Andre and Kaj.</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
@@ -405,9 +492,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
@@ -511,53 +598,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,7 +622,76 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,30 +708,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -653,37 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,73 +758,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -779,7 +776,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -791,7 +854,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,13 +902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,17 +916,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -868,11 +964,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -880,23 +993,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -915,27 +1013,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -944,14 +1031,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -960,111 +1047,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1426,10 +1513,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
@@ -1612,12 +1699,12 @@
         <v>29</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" ht="42" customHeight="1" spans="1:7">
       <c r="A13" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="12">
         <v>0.965972222222222</v>
@@ -1626,21 +1713,21 @@
         <v>21</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" ht="85" customHeight="1" spans="1:7">
       <c r="A14" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B14" s="12">
         <v>0.532638888888889</v>
@@ -1649,21 +1736,21 @@
         <v>21</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E14" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="G14" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" ht="102" customHeight="1" spans="1:7">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B15" s="12">
         <v>0.925694444444444</v>
@@ -1672,21 +1759,21 @@
         <v>21</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" ht="60" customHeight="1" spans="1:7">
       <c r="A16" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B16" s="12">
         <v>0.518055555555556</v>
@@ -1695,21 +1782,21 @@
         <v>21</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="83" customHeight="1" spans="1:7">
       <c r="A17" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B17" s="12">
         <v>0.55</v>
@@ -1718,21 +1805,21 @@
         <v>21</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="85" customHeight="1" spans="1:7">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="12">
         <v>0.485416666666667</v>
@@ -1741,116 +1828,114 @@
         <v>21</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" ht="121" customHeight="1" spans="1:7">
+      <c r="A19" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="12">
+        <v>0.990972222222222</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="G18" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" ht="133" customHeight="1" spans="1:7">
-      <c r="A19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="12">
+      <c r="F19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="13"/>
+    </row>
+    <row r="20" ht="133" customHeight="1" spans="1:7">
+      <c r="A20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="12">
         <v>0.498611111111111</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="11" t="s">
+      <c r="C20" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="G19" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" ht="109" customHeight="1" spans="1:7">
-      <c r="A20" s="11" t="s">
+      <c r="E20" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="12">
+      <c r="F20" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" ht="109" customHeight="1" spans="1:7">
+      <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12">
         <v>0.772222222222222</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" ht="145" customHeight="1" spans="1:7">
-      <c r="A21" s="11" t="s">
+      <c r="D21" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="B21" s="12">
-        <v>0.839583333333333</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F21" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" ht="145" customHeight="1" spans="1:7">
+      <c r="A22" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="G21" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" ht="87" customHeight="1" spans="1:7">
-      <c r="A22" s="11" t="s">
+      <c r="B22" s="12">
+        <v>0.839583333333333</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B22" s="12">
-        <v>0.907638888888889</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="11" t="s">
+      <c r="E22" s="11" t="s">
         <v>63</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>64</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" ht="47" customHeight="1" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" ht="87" customHeight="1" spans="1:7">
       <c r="A23" s="11" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="12">
-        <v>0.613194444444444</v>
+        <v>0.907638888888889</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>21</v>
@@ -1859,182 +1944,182 @@
         <v>66</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" ht="115" customHeight="1" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" ht="61" customHeight="1" spans="1:7">
       <c r="A24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B24" s="12">
+        <v>0.613194444444444</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" ht="115" customHeight="1" spans="1:7">
+      <c r="A25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="12">
         <v>0.5375</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" ht="100" customHeight="1" spans="1:7">
-      <c r="A25" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="12">
-        <v>0.891666666666667</v>
-      </c>
       <c r="C25" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" ht="164" customHeight="1" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" ht="100" customHeight="1" spans="1:7">
       <c r="A26" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="12">
-        <v>0.954166666666667</v>
+        <v>0.891666666666667</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>28</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" ht="99" customHeight="1" spans="1:7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" ht="164" customHeight="1" spans="1:7">
       <c r="A27" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B27" s="12">
+        <v>0.954166666666667</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" ht="99" customHeight="1" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="12">
         <v>0.625</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" ht="55" customHeight="1" spans="1:7">
-      <c r="A28" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="12">
-        <v>0.929861111111111</v>
-      </c>
       <c r="C28" s="11" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" ht="55" customHeight="1" spans="1:7">
       <c r="A29" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B29" s="12">
+        <v>0.929861111111111</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" ht="55" customHeight="1" spans="1:7">
+      <c r="A30" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" s="12">
         <v>0.985416666666667</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="G29" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" ht="97" customHeight="1" spans="1:7">
-      <c r="A30" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B30" s="12">
+      <c r="C30" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" ht="97" customHeight="1" spans="1:7">
+      <c r="A31" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="12">
         <v>0.489583333333333</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="13" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" ht="109" customHeight="1" spans="1:7">
-      <c r="A31" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B31" s="12">
-        <v>0.993055555555556</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>21</v>
@@ -2043,307 +2128,405 @@
         <v>92</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" ht="89" customHeight="1" spans="1:7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" ht="109" customHeight="1" spans="1:7">
       <c r="A32" s="11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B32" s="12">
+        <v>0.993055555555556</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" ht="89" customHeight="1" spans="1:7">
+      <c r="A33" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B33" s="12">
         <v>0.536111111111111</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" ht="123" customHeight="1" spans="1:7">
-      <c r="A33" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="12">
+      <c r="C33" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" ht="123" customHeight="1" spans="1:7">
+      <c r="A34" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B34" s="12">
         <v>0.895138888888889</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D33" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="11" t="s">
+      <c r="C34" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="G33" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" ht="85" customHeight="1" spans="1:7">
-      <c r="A34" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="12">
+      <c r="E34" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="F34" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" ht="85" customHeight="1" spans="1:7">
+      <c r="A35" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B35" s="12">
         <v>0.966666666666667</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" ht="153" customHeight="1" spans="1:7">
-      <c r="A35" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="C35" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" ht="153" customHeight="1" spans="1:7">
+      <c r="A36" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B36" s="12">
         <v>0.995138888888889</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E35" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G35" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" ht="100" customHeight="1" spans="1:7">
-      <c r="A36" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="C36" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" ht="100" customHeight="1" spans="1:7">
+      <c r="A37" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="12">
         <v>0.805555555555556</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="G36" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" ht="97" customHeight="1" spans="1:7">
-      <c r="A37" s="11" t="s">
+      <c r="C37" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" ht="97" customHeight="1" spans="1:7">
+      <c r="A38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="12">
+        <v>0.8625</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="134" customHeight="1" spans="1:7">
+      <c r="A39" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="12">
+        <v>0.890277777777778</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" ht="185" customHeight="1" spans="1:7">
+      <c r="A40" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="12">
+        <v>0.965277777777778</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" ht="108" customHeight="1" spans="1:7">
+      <c r="A41" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B41" s="12">
+        <v>0.932638888888889</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E41" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B37" s="12">
-        <v>0.8625</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="G37" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" ht="134" customHeight="1" spans="1:7">
-      <c r="A38" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B38" s="12">
-        <v>0.890277777777778</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" ht="185" customHeight="1" spans="1:7">
-      <c r="A39" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="12">
-        <v>0.965277777777778</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G39" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" ht="108" customHeight="1" spans="1:7">
-      <c r="A40" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="12">
-        <v>0.932638888888889</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41" ht="97" customHeight="1" spans="1:7">
-      <c r="A41" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="12">
+      <c r="F41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" ht="97" customHeight="1" spans="1:7">
+      <c r="A42" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="12">
         <v>0.966666666666667</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G41" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="42" ht="35" customHeight="1" spans="1:7">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="13"/>
-    </row>
-    <row r="43" ht="15.6" spans="1:7">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="13"/>
-    </row>
-    <row r="44" ht="15.6" spans="1:7">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="13"/>
-    </row>
-    <row r="45" ht="15.6" spans="1:7">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
-      <c r="F45" s="11"/>
-      <c r="G45" s="13"/>
-    </row>
-    <row r="46" ht="15.6" spans="1:7">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
-      <c r="F46" s="11"/>
-      <c r="G46" s="13"/>
-    </row>
-    <row r="47" ht="15.6" spans="1:7">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="11"/>
-      <c r="F47" s="11"/>
-      <c r="G47" s="13"/>
-    </row>
-    <row r="48" ht="15.6" spans="1:7">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="13"/>
+      <c r="C42" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" ht="72" customHeight="1" spans="1:7">
+      <c r="A43" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.922916666666667</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" ht="88" customHeight="1" spans="1:7">
+      <c r="A44" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="12">
+        <v>0.967361111111111</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F44" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" ht="57" customHeight="1" spans="1:7">
+      <c r="A45" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="12">
+        <v>0.436805555555556</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" ht="74" customHeight="1" spans="1:7">
+      <c r="A46" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" ht="89" customHeight="1" spans="1:7">
+      <c r="A47" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="12">
+        <v>0.882638888888889</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" ht="55" customHeight="1" spans="1:7">
+      <c r="A48" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B48" s="12">
+        <v>0.834027777777778</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="49" ht="15.6" spans="1:7">
       <c r="A49" s="11"/>
@@ -3037,6 +3220,15 @@
       <c r="E125" s="11"/>
       <c r="F125" s="11"/>
       <c r="G125" s="13"/>
+    </row>
+    <row r="126" ht="15.6" spans="1:7">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="11"/>
+      <c r="F126" s="11"/>
+      <c r="G126" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/diaries/diary-Shikun Xiong.xlsx
+++ b/diaries/diary-Shikun Xiong.xlsx
@@ -492,10 +492,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -592,14 +592,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -607,14 +607,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -629,7 +621,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -643,9 +642,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -667,47 +705,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,19 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,25 +758,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -794,67 +794,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -872,7 +812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,25 +836,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,8 +919,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,11 +949,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -989,40 +1013,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1031,14 +1031,14 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1047,111 +1047,111 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1515,8 +1515,8 @@
   <sheetPr/>
   <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="6"/>
